--- a/Client/Assets/Data/XLSXS/MagicBookData.xlsx
+++ b/Client/Assets/Data/XLSXS/MagicBookData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsy01\Desktop\FourT\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_2024\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7423483-FB0B-4663-9816-63BB4CF6128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDFA2A-9744-49BF-99B8-65ABD22BF3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="375" yWindow="180" windowWidth="28260" windowHeight="20670" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>string</t>
   </si>
@@ -60,9 +60,6 @@
     <t>급진</t>
   </si>
   <si>
-    <t>캐릭터의 이동속도와 공격력이 30% 증가합니다.</t>
-  </si>
-  <si>
     <t>물쿠션</t>
   </si>
   <si>
@@ -115,26 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MagicElement</t>
   </si>
   <si>
@@ -154,11 +131,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동속도가 20% 감소하는 대신 보유 체력이 50% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 후 10초마다 자신의 전체 체력 20%를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 컬러코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E5BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BBE5C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spd_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프력이 30% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 공격력이 30% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +248,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +302,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,6 +321,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6E0B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -574,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,9 +648,11 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="93.75" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -607,30 +669,42 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -638,19 +712,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -664,13 +744,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -684,94 +767,110 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Data/XLSXS/MagicBookData.xlsx
+++ b/Client/Assets/Data/XLSXS/MagicBookData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_2024\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDFA2A-9744-49BF-99B8-65ABD22BF3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92F529-2234-4B47-B8F9-A17E02249E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="180" windowWidth="28260" windowHeight="20670" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>string</t>
   </si>
@@ -184,6 +184,23 @@
   </si>
   <si>
     <t>캐릭터의 공격력이 30% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,9 +321,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -338,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -484,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,7 +666,7 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -677,8 +691,20 @@
       <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,8 +729,20 @@
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,8 +767,20 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -746,14 +796,26 @@
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -775,8 +837,20 @@
       <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -798,8 +872,20 @@
       <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -821,8 +907,20 @@
       <c r="H7" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -838,14 +936,26 @@
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -861,19 +971,32 @@
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="I9" s="7">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/XLSXS/MagicBookData.xlsx
+++ b/Client/Assets/Data/XLSXS/MagicBookData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92F529-2234-4B47-B8F9-A17E02249E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E2333-F676-47FB-87A2-E06195002BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="1185" yWindow="4755" windowWidth="29730" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
